--- a/migforecasting/cities17-18/6/d3.xlsx
+++ b/migforecasting/cities17-18/6/d3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities17-18\6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="216">
   <si>
     <t>2017</t>
   </si>
@@ -1064,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,15 +1083,9 @@
       <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -1100,6 +1094,15 @@
       <c r="B2" t="s">
         <v>215</v>
       </c>
+      <c r="C2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -2262,9 +2265,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
+      <c r="A76" s="1"/>
       <c r="B76" t="s">
         <v>214</v>
       </c>
@@ -2279,14 +2280,10 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
+      <c r="A77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
+      <c r="A78" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
